--- a/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
+++ b/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/DokumenteCA/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T3-Extern/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Martin Idler</t>
   </si>
   <si>
-    <t xml:space="preserve"> +49 173 3939695</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +49 151 19696316</t>
-  </si>
-  <si>
     <t>Stefan Kappler</t>
   </si>
   <si>
@@ -120,6 +114,18 @@
   </si>
   <si>
     <t>NICHT-RADFAHRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 151 196 963 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 173 393 96 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 151 516 531 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 151 14177894</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,32 +514,32 @@
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
@@ -542,7 +548,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3"/>
     </row>
@@ -567,56 +573,60 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
     </row>
@@ -626,37 +636,37 @@
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1"/>
     </row>

--- a/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
+++ b/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T3-Extern/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/DokumenteCA/SourceTree/cycling-adventures.org/2017 Reisen/toskana/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t xml:space="preserve"> +49 151 14177894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 151 674 097 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 151 404 277 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +43 676 738 83 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +43 676 738 83 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 176 961 690 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 172 292 65 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +43 664 214 36 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +49 170 346 72 47</t>
   </si>
 </sst>
 </file>
@@ -495,7 +519,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,31 +628,41 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -644,7 +678,9 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -656,19 +692,25 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
+++ b/2017 Reisen/toskana/Teilnehmerliste Toskana 2017.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,65 +608,65 @@
     </row>
     <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1"/>
     </row>
